--- a/files/DPA_driven_by_algorithm_function.xlsx
+++ b/files/DPA_driven_by_algorithm_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB73E2B-AE41-42A9-A47B-9A7C1AE70EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442808C1-1B9A-4E71-A75B-D445E66785A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{C6E40C76-0A13-4483-8140-4245D6D65DD1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>No</t>
   </si>
@@ -655,6 +655,237 @@
   </si>
   <si>
     <t>Recusrsive Impersonation[50]</t>
+  </si>
+  <si>
+    <t>Algorithm Name</t>
+  </si>
+  <si>
+    <t>DPA-A-APGD</t>
+  </si>
+  <si>
+    <t>DPA-A-PPGD</t>
+  </si>
+  <si>
+    <t>DPA-A-Cassidi</t>
+  </si>
+  <si>
+    <t>DPA-A-Deepfool</t>
+  </si>
+  <si>
+    <t>DPA-A-LPA</t>
+  </si>
+  <si>
+    <t>DPA-A-Fast-LPA</t>
+  </si>
+  <si>
+    <t>DPA-A-Square Attack</t>
+  </si>
+  <si>
+    <t>DPA-A-AutoAttack</t>
+  </si>
+  <si>
+    <t>DPA-A-NewtonFool</t>
+  </si>
+  <si>
+    <t>DPA-A-R-FGSM</t>
+  </si>
+  <si>
+    <t>DPA-A-N-FGSM</t>
+  </si>
+  <si>
+    <t>DPA-A-Fast-FGSM</t>
+  </si>
+  <si>
+    <t>DPA-A-Rapid-FGSM</t>
+  </si>
+  <si>
+    <t>DPA-A-Robust-FGSM</t>
+  </si>
+  <si>
+    <t>DPA-A-UAP</t>
+  </si>
+  <si>
+    <t>DPA-A-TUAP</t>
+  </si>
+  <si>
+    <t>DPA-A-TUAP-DeepFool</t>
+  </si>
+  <si>
+    <t>DPA-A-TUAP-CW</t>
+  </si>
+  <si>
+    <t>DPA-A-DFO</t>
+  </si>
+  <si>
+    <t>DPA-A-CW</t>
+  </si>
+  <si>
+    <t>DPA-A-AdvPreprocessing</t>
+  </si>
+  <si>
+    <t>DPA-ShadowAttack</t>
+  </si>
+  <si>
+    <t>DPA-A-Biggio</t>
+  </si>
+  <si>
+    <t>DPA-A-FrogsAttack</t>
+  </si>
+  <si>
+    <t>DPA-A-Salt-Pepper</t>
+  </si>
+  <si>
+    <t>DPA-A-SignHunter</t>
+  </si>
+  <si>
+    <t>DPA-A-FastMN</t>
+  </si>
+  <si>
+    <t>DPA-A-FAB</t>
+  </si>
+  <si>
+    <t>DPA-A-BB</t>
+  </si>
+  <si>
+    <t>DPA-A-KKT Based</t>
+  </si>
+  <si>
+    <t>PIA (partial Information Attack)</t>
+  </si>
+  <si>
+    <t>DPA-A-JSMA-F</t>
+  </si>
+  <si>
+    <t>DPA-JSMA-Z</t>
+  </si>
+  <si>
+    <t>DPA-A-JPEG-Linf</t>
+  </si>
+  <si>
+    <t>DPA-A-ReColorAdv</t>
+  </si>
+  <si>
+    <t>DPA-A-SimBA (simple black box attack)</t>
+  </si>
+  <si>
+    <t>DPA-A-SimBA-DCT (simple black box attack)</t>
+  </si>
+  <si>
+    <t>DPA-A-Parsimonious(Efficient Combinatorial Optimization)</t>
+  </si>
+  <si>
+    <t>DPA-A-DFO -(1+1)-ES</t>
+  </si>
+  <si>
+    <t>DPA-A-DFO-CMA-ES</t>
+  </si>
+  <si>
+    <t>DPA-A-Bandits</t>
+  </si>
+  <si>
+    <r>
+      <t>DPA-A-Bandits</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DPA-A-Bandits</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <t>DPA-A-NES</t>
+  </si>
+  <si>
+    <t>NES-GE</t>
+  </si>
+  <si>
+    <t>NES-PIA</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO Attack [31]</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-SGD</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-SignSGD</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-M-signSGD</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-NES</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-SCD</t>
+  </si>
+  <si>
+    <t>DPA-A-FMN</t>
+  </si>
+  <si>
+    <t>DPA-A-Semantic Attack</t>
+  </si>
+  <si>
+    <t>DPA-A-Discretized Inputs</t>
+  </si>
+  <si>
+    <t>DPA-A-CROWN-IBP</t>
+  </si>
+  <si>
+    <t>DPA-A-BPDA</t>
+  </si>
+  <si>
+    <t>DPA-A-BNN-GA</t>
+  </si>
+  <si>
+    <t>BNN-ZOO</t>
+  </si>
+  <si>
+    <t>DPA-A-Koh-Liang attack</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-ADAM</t>
+  </si>
+  <si>
+    <t>DPA-A-ZOO-Newton</t>
+  </si>
+  <si>
+    <t>DPA-A-SADS</t>
+  </si>
+  <si>
+    <t>DPA-A-Physical Attack</t>
   </si>
 </sst>
 </file>
@@ -668,12 +899,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6.5"/>
@@ -709,6 +934,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,19 +1016,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,567 +1345,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAF640F-F42E-450E-83CF-BFA97DBD8762}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>68</v>
       </c>
     </row>

--- a/files/DPA_driven_by_algorithm_function.xlsx
+++ b/files/DPA_driven_by_algorithm_function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roadm\Desktop\Attacks\roadmap.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442808C1-1B9A-4E71-A75B-D445E66785A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBC0899-E4A1-41C7-8429-014B56B79442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15990" xr2:uid="{C6E40C76-0A13-4483-8140-4245D6D65DD1}"/>
   </bookViews>
@@ -657,9 +657,6 @@
     <t>Recusrsive Impersonation[50]</t>
   </si>
   <si>
-    <t>Algorithm Name</t>
-  </si>
-  <si>
     <t>DPA-A-APGD</t>
   </si>
   <si>
@@ -886,6 +883,9 @@
   </si>
   <si>
     <t>DPA-A-Physical Attack</t>
+  </si>
+  <si>
+    <t>Attack Name</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -1418,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1429,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1440,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1451,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1462,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -1495,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1506,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
@@ -1517,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -1528,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -1539,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1550,7 +1550,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1561,7 +1561,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1572,7 +1572,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1583,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -1605,7 +1605,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -1616,7 +1616,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
@@ -1627,7 +1627,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
@@ -1638,7 +1638,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -1649,7 +1649,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -1660,7 +1660,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -1671,7 +1671,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
@@ -1682,7 +1682,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>30</v>
@@ -1693,7 +1693,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
@@ -1704,7 +1704,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
@@ -1715,7 +1715,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -1726,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
@@ -1737,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>34</v>
@@ -1748,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -1759,7 +1759,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>36</v>
@@ -1770,7 +1770,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>37</v>
@@ -1781,7 +1781,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>38</v>
@@ -1792,7 +1792,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -1803,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
@@ -1814,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>41</v>
@@ -1825,7 +1825,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
@@ -1836,7 +1836,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>43</v>
@@ -1847,7 +1847,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
@@ -1858,7 +1858,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>45</v>
@@ -1869,7 +1869,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
@@ -1880,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>47</v>
@@ -1891,7 +1891,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>48</v>
@@ -1902,7 +1902,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>49</v>
@@ -1913,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>50</v>
@@ -1924,7 +1924,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>51</v>
@@ -1935,7 +1935,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>52</v>
@@ -1946,7 +1946,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>53</v>
@@ -1957,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>54</v>
@@ -1968,7 +1968,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>55</v>
@@ -1979,7 +1979,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -1990,7 +1990,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>57</v>
@@ -2001,7 +2001,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>58</v>
@@ -2012,7 +2012,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>59</v>
@@ -2023,7 +2023,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>60</v>
@@ -2034,7 +2034,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>61</v>
@@ -2045,7 +2045,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>62</v>
@@ -2056,7 +2056,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>63</v>
@@ -2067,7 +2067,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
@@ -2078,7 +2078,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>65</v>
@@ -2089,7 +2089,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>66</v>
@@ -2100,7 +2100,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>67</v>
@@ -2111,7 +2111,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>68</v>
